--- a/res/Test Checklist.xlsx
+++ b/res/Test Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Desktop\Cycling Coursework\ECM1410-Cycling-Coursework\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79AB7EA-6742-40D9-A294-AF5A8B491781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9ACAA9-8420-44FA-A2CD-0626EFF29C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EAC307A-8FFF-4A01-A94B-72348606857C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Function</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>getRidersMountainPointClassificationRank</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Half</t>
   </si>
 </sst>
 </file>
@@ -197,9 +203,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,19 +552,20 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -557,11 +573,17 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -627,86 +649,101 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>

--- a/res/Test Checklist.xlsx
+++ b/res/Test Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Desktop\Cycling Coursework\ECM1410-Cycling-Coursework\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9ACAA9-8420-44FA-A2CD-0626EFF29C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A401BAB-32F3-47EC-AD98-FA83680FEB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EAC307A-8FFF-4A01-A94B-72348606857C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Function</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>Half</t>
   </si>
 </sst>
 </file>
@@ -552,7 +549,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -594,6 +591,9 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -748,37 +748,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>

--- a/res/Test Checklist.xlsx
+++ b/res/Test Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Desktop\Cycling Coursework\ECM1410-Cycling-Coursework\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A401BAB-32F3-47EC-AD98-FA83680FEB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0E2C98-E6B9-489C-AB58-7655C0C824B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EAC307A-8FFF-4A01-A94B-72348606857C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Function</t>
   </si>
@@ -159,6 +159,39 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>ID MAP</t>
+  </si>
+  <si>
+    <t>riderId</t>
+  </si>
+  <si>
+    <t>teamId</t>
+  </si>
+  <si>
+    <t>raceId</t>
+  </si>
+  <si>
+    <t>checkpointId</t>
+  </si>
+  <si>
+    <t>stageId</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Rider</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Checkpoint</t>
+  </si>
+  <si>
+    <t>Stage</t>
   </si>
 </sst>
 </file>
@@ -546,19 +579,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF95829D-63CA-40D7-A9D1-5225706937C4}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,86 +601,173 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>

--- a/res/Test Checklist.xlsx
+++ b/res/Test Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Desktop\Cycling Coursework\ECM1410-Cycling-Coursework\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0E2C98-E6B9-489C-AB58-7655C0C824B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C43B56-9A05-4311-B731-5A99163B5D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EAC307A-8FFF-4A01-A94B-72348606857C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Function</t>
   </si>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF95829D-63CA-40D7-A9D1-5225706937C4}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,16 +746,25 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -766,6 +775,9 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -819,10 +831,16 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">

--- a/res/Test Checklist.xlsx
+++ b/res/Test Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Desktop\Cycling Coursework\ECM1410-Cycling-Coursework\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C43B56-9A05-4311-B731-5A99163B5D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2392B79-6F89-4ABF-A2BB-ECBEF02C4F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EAC307A-8FFF-4A01-A94B-72348606857C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>Function</t>
   </si>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF95829D-63CA-40D7-A9D1-5225706937C4}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,6 +770,9 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -877,15 +880,24 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
+      <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">

--- a/res/Test Checklist.xlsx
+++ b/res/Test Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Desktop\Cycling Coursework\ECM1410-Cycling-Coursework\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2392B79-6F89-4ABF-A2BB-ECBEF02C4F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABEF9D5-9B3B-41B8-9C6D-134C24A5A008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EAC307A-8FFF-4A01-A94B-72348606857C}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/res/Test Checklist.xlsx
+++ b/res/Test Checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwar\Desktop\Cycling Coursework\ECM1410-Cycling-Coursework\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandy\source\repos\OOP Coursework\ECM1410-Cycling-Coursework\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABEF9D5-9B3B-41B8-9C6D-134C24A5A008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AB2913-8154-439A-8798-4AFFFE3810FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EAC307A-8FFF-4A01-A94B-72348606857C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EAC307A-8FFF-4A01-A94B-72348606857C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>Function</t>
   </si>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF95829D-63CA-40D7-A9D1-5225706937C4}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,31 +850,49 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
+      <c r="B26" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -912,30 +930,48 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
+      <c r="B34" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
+      <c r="B35" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
+      <c r="B36" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
+      <c r="B37" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
+      <c r="B38" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
